--- a/data-raw/authors.xlsx
+++ b/data-raw/authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\cbssuitabilityhaiti\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlubeck-schricker/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B9879-33D6-4E65-B16A-62EF3982B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403B090-3DAE-4443-9B77-70FD4310C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>first_name</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Lubeck-Schricker</t>
+  </si>
+  <si>
+    <t>mlubeck-schricker@oursoil.org</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Kramer</t>
+  </si>
+  <si>
+    <t>skramer@oursoil.org</t>
   </si>
 </sst>
 </file>
@@ -406,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -448,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -463,12 +481,42 @@
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B4D3E6D6-F4A7-4E54-AB34-7CE227E3E0F3}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{340A9329-4B42-4BA3-8656-93F6EF1C887A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D57909A3-C498-F849-9A9D-AB56E5A1F935}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{42E89FA0-0C7D-8D48-9F1F-30CDD7A8D87E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data-raw/authors.xlsx
+++ b/data-raw/authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlubeck-schricker/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sloos\Documents\git-repositories\cbssuitabilityhaiti\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403B090-3DAE-4443-9B77-70FD4310C01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1060897-D5CD-43F8-9137-B55E39864735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>first_name</t>
   </si>
@@ -46,24 +46,12 @@
     <t>seba.loos@hotmail.com</t>
   </si>
   <si>
-    <t>cre</t>
-  </si>
-  <si>
     <t>0000-0002-8830-1734</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
-  </si>
-  <si>
     <t>aut</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Maya</t>
   </si>
   <si>
@@ -80,6 +68,9 @@
   </si>
   <si>
     <t>skramer@oursoil.org</t>
+  </si>
+  <si>
+    <t>cre, aut</t>
   </si>
 </sst>
 </file>
@@ -424,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -460,63 +451,45 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B4D3E6D6-F4A7-4E54-AB34-7CE227E3E0F3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{340A9329-4B42-4BA3-8656-93F6EF1C887A}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{D57909A3-C498-F849-9A9D-AB56E5A1F935}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{42E89FA0-0C7D-8D48-9F1F-30CDD7A8D87E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D57909A3-C498-F849-9A9D-AB56E5A1F935}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{42E89FA0-0C7D-8D48-9F1F-30CDD7A8D87E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
